--- a/erreur.xlsx
+++ b/erreur.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthieu\programmation\socket\chat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthieu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5038F82E-BA82-49E8-A523-BB8D52CB8ED3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670FF876-9F30-4651-B0F2-57B7DBE37ABA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="2460" windowWidth="17280" windowHeight="9540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3024" yWindow="2472" windowWidth="17280" windowHeight="9540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ERROR" sheetId="1" r:id="rId1"/>
@@ -505,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,154 +749,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>43</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
@@ -915,10 +770,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFE04DC-4B7F-4061-B30D-0C56074AA073}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F10:F11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -994,39 +849,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
